--- a/Projects/GMIUS/Data/RBG GMI KPI Template v0.2.xlsx
+++ b/Projects/GMIUS/Data/RBG GMI KPI Template v0.2.xlsx
@@ -20,9 +20,8 @@
     <sheet name="Percent" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Aggregation" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Top-Middle-Bottom Map" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Yogurt Location Map" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stocking Location" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Alternate Stocking Location" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Result" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Presence within Bay" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="130">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -201,12 +200,6 @@
     <t xml:space="preserve">Presence</t>
   </si>
   <si>
-    <t xml:space="preserve">What best describes the stocking location of Organic Yogurt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stocking Location</t>
-  </si>
-  <si>
     <t xml:space="preserve">When RTS Progresso is vertically blocked, what is adjacent?</t>
   </si>
   <si>
@@ -228,12 +221,6 @@
     <t xml:space="preserve">Not Blocked</t>
   </si>
   <si>
-    <t xml:space="preserve">ordering test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How is RTS Progresso blocked?, How is RTS Private Label blocked?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aggregation</t>
   </si>
   <si>
@@ -243,12 +230,18 @@
     <t xml:space="preserve">Value 1</t>
   </si>
   <si>
+    <t xml:space="preserve">RESULT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Segment</t>
   </si>
   <si>
     <t xml:space="preserve">COOKIE</t>
   </si>
   <si>
+    <t xml:space="preserve">tmb</t>
+  </si>
+  <si>
     <t xml:space="preserve">sub_category</t>
   </si>
   <si>
@@ -273,9 +266,15 @@
     <t xml:space="preserve">count_attribute</t>
   </si>
   <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
+    <t xml:space="preserve">count of</t>
+  </si>
+  <si>
     <t xml:space="preserve">segment</t>
   </si>
   <si>
@@ -297,6 +296,9 @@
     <t xml:space="preserve">PIE CRUST DOUGH</t>
   </si>
   <si>
+    <t xml:space="preserve">blocking</t>
+  </si>
+  <si>
     <t xml:space="preserve">COOKIE DOUGH</t>
   </si>
   <si>
@@ -309,6 +311,9 @@
     <t xml:space="preserve">CRESCENT DOUGH</t>
   </si>
   <si>
+    <t xml:space="preserve">shelf length</t>
+  </si>
+  <si>
     <t xml:space="preserve">target</t>
   </si>
   <si>
@@ -330,6 +335,9 @@
     <t xml:space="preserve">Numerator value 1</t>
   </si>
   <si>
+    <t xml:space="preserve">presence</t>
+  </si>
+  <si>
     <t xml:space="preserve">*this will be looking at presence of cookies away from main stocking location, additional parameters needed for this?</t>
   </si>
   <si>
@@ -339,6 +347,9 @@
     <t xml:space="preserve">category </t>
   </si>
   <si>
+    <t xml:space="preserve">count of shelves</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denominator param 1</t>
   </si>
   <si>
@@ -348,6 +359,9 @@
     <t xml:space="preserve">CHOCOLATE CHIP COOKIE</t>
   </si>
   <si>
+    <t xml:space="preserve">quartile</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOS Type</t>
   </si>
   <si>
@@ -375,130 +389,40 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. All Organic Blocked within Mainstream Yogurt Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. Adult Organic and Kid Organic Blocked, but in Separate Locations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Interspersed within Mainstream Yogurt Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. All Organic Blocked; Located in Separate Location in Separate Aisle (Natural/Organic Store within a Store)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.  No Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 1 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 2 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 3 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 4 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 5 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6 Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6 Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6 Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria 6 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural/ Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kid nat/org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult nat/org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL</t>
+    <t xml:space="preserve">Result Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delimiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top, Top-Middle, Middle, Middle-Bottom, Bottom, Top-Bottom, Top-Middle-Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 3, 4, 5+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical Block, Horizontal Block, Not Blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than or Equal to 2 Feet, 2 Feet &gt; and &lt;= 4 Feet, 4 Feet &gt; and &lt;= 6 Feet, 6 Feet &gt; and &lt;= 8 Feet, Greater than 8 Feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;25%, 25-50%, 50%-75%, &gt;75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;5, 5, 6, 7, 8+</t>
   </si>
 </sst>
 </file>
@@ -509,7 +433,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -546,19 +470,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -580,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -595,22 +506,8 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,12 +531,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,31 +577,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -778,23 +654,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.3555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.6925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="111.518518518519"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.4111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="114.359259259259"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,8 +1329,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -1463,6 +1339,12 @@
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D35" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="F35" s="0" t="s">
         <v>12</v>
       </c>
@@ -1470,21 +1352,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>57</v>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>12</v>
@@ -1495,19 +1377,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>12</v>
@@ -1518,67 +1394,38 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>34</v>
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="I39" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="I41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="1"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1596,20 +1443,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.6444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.7222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,16 +1464,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,16 +1484,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1662,18 +1515,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,21 +1534,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1722,13 +1578,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B1" s="8" t="n">
         <v>1</v>
@@ -1766,13 +1622,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1787,16 +1643,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1810,19 +1666,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1835,22 +1691,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1862,25 +1718,25 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1891,28 +1747,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1922,67 +1778,67 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2001,79 +1857,129 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>124</v>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2092,306 +1998,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.5259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36296296296296"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2407,18 +2024,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.5037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,10 +2043,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,65 +2057,83 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2514,36 +2152,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.4259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,12 +2192,15 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2568,9 +2212,12 @@
         <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2582,9 +2229,12 @@
         <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2593,12 +2243,15 @@
         <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="D5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2607,12 +2260,15 @@
         <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2716,37 +2372,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,19 +2418,25 @@
       <c r="C2" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>36</v>
       </c>
@@ -2779,10 +2444,13 @@
         <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>37</v>
       </c>
@@ -2790,10 +2458,13 @@
         <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>38</v>
       </c>
@@ -2801,27 +2472,33 @@
         <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>40</v>
       </c>
@@ -2829,13 +2506,16 @@
         <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2857,14 +2537,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,10 +2552,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,7 +2571,9 @@
       <c r="C2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2914,17 +2599,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.3555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.4111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,7 +2625,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,7 +2633,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2975,8 +2660,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,7 +2676,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3010,19 +2695,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.1888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.562962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,13 +2715,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>53</v>
       </c>
@@ -3044,15 +2732,18 @@
         <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="4" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3071,16 +2762,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,10 +2779,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,10 +2793,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>82</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GMIUS/Data/RBG GMI KPI Template v0.2.xlsx
+++ b/Projects/GMIUS/Data/RBG GMI KPI Template v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,15 +13,14 @@
     <sheet name="Count of" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Blocking" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Base Measure" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Survey Question" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Product Orientation" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Presence" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Count of Shelves" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Percent" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Aggregation" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Top-Middle-Bottom Map" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Result" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Presence within Bay" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Product Orientation" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Presence" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Count of Shelves" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Percent" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Aggregation" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Top-Middle-Bottom Map" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Result" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Presence within Bay" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="115">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -158,18 +157,6 @@
     <t xml:space="preserve">How are Savory segments blocked?</t>
   </si>
   <si>
-    <t xml:space="preserve">Are shelf-ready cases present in PILLSBURY canned dough?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the Main Stocking Location for RBG, what best describes the stocking conditions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which categories are directly adjacent to RBG (left and right)</t>
-  </si>
-  <si>
     <t xml:space="preserve">How many base feet is RBG?</t>
   </si>
   <si>
@@ -185,13 +172,13 @@
     <t xml:space="preserve">Are other items stocked in dough section?</t>
   </si>
   <si>
-    <t xml:space="preserve">Presence within bay</t>
+    <t xml:space="preserve">Presence within Bay</t>
   </si>
   <si>
     <t xml:space="preserve">How many shelves are in the set?</t>
   </si>
   <si>
-    <t xml:space="preserve">Count of shelves</t>
+    <t xml:space="preserve">Count of Shelves</t>
   </si>
   <si>
     <t xml:space="preserve">Are Cookies stocked in a separate section?</t>
@@ -200,27 +187,6 @@
     <t xml:space="preserve">Presence</t>
   </si>
   <si>
-    <t xml:space="preserve">When RTS Progresso is vertically blocked, what is adjacent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjacency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How is RTS Progresso blocked?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertical Block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If not blocked, where is RTS Private Label stocked? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How is RTS Private Label blocked?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Blocked</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aggregation</t>
   </si>
   <si>
@@ -260,9 +226,6 @@
     <t xml:space="preserve">SWEET ROLL</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI name</t>
-  </si>
-  <si>
     <t xml:space="preserve">count_attribute</t>
   </si>
   <si>
@@ -311,19 +274,10 @@
     <t xml:space="preserve">CRESCENT DOUGH</t>
   </si>
   <si>
+    <t xml:space="preserve">Super Category</t>
+  </si>
+  <si>
     <t xml:space="preserve">shelf length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, 4 foot set,No, 4 foot set,Yes, 6 foot set,No, 6 foot set,Yes, 8 foot set,No, 8 foot set,Yes, 10 foot set,No, 10 foot set,Yes, 12 foot set,No, 12 foot set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All stocked behind glass doors,None stocked behind glass doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butter,Gelatin/Pudding,Eggs,Yogurt,Milk,Other</t>
   </si>
   <si>
     <t xml:space="preserve">*Still waiting on confirmation as to which attributes this KPI will run off of</t>
@@ -433,7 +387,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -455,12 +409,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -491,19 +439,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -532,17 +473,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -554,23 +491,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -654,23 +587,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="1" sqref="A1:E8 A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.4111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="114.359259259259"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.6259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.5777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="120.337037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,7 +1134,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1217,10 +1150,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1236,10 +1169,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1255,10 +1188,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1273,159 +1206,22 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>50</v>
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="I32" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="I39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="1"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1443,60 +1239,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.7222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>99</v>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>31</v>
+      <c r="A2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1515,43 +1294,275 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A1:E8 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>112</v>
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1570,275 +1581,129 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A1:E8 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>116</v>
+      <c r="C8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1857,158 +1722,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36296296296296"/>
-  </cols>
-  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2027,15 +1762,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.5037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,13 +1792,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,13 +1806,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,13 +1820,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,13 +1834,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,13 +1848,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,13 +1862,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2155,36 +1890,36 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.4259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.337037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.2407407407407"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,16 +1927,16 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,16 +1944,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,16 +1961,16 @@
         <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,16 +1978,16 @@
         <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,16 +1995,16 @@
         <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,13 +2012,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,13 +2026,13 @@
         <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,13 +2040,13 @@
         <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,13 +2054,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,13 +2068,13 @@
         <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,13 +2082,13 @@
         <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2374,52 +2109,52 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.237037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,13 +2162,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,13 +2176,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,13 +2190,13 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,13 +2204,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,19 +2218,19 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,19 +2238,19 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2537,42 +2272,42 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2591,49 +2326,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.4111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>96</v>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2652,31 +2369,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.3925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.4037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>56</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2695,19 +2436,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.562962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,35 +2453,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2762,53 +2492,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>104</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>